--- a/biology/Zoologie/Geocenamus_brevidens/Geocenamus_brevidens.xlsx
+++ b/biology/Zoologie/Geocenamus_brevidens/Geocenamus_brevidens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Geocenamus brevidens est une espèce de nématodes de la famille des Dolichodoridae et du genre Geocenamus.
 </t>
@@ -511,10 +523,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce a été initialement classée dans le genre Tylenchorhynchus sous le protonyme Tylenchorhynchus brevidens par Merlin Walters Allen en 1955. Elle est déplacée dans le genre Geocenamus sous le nom binominal Geocenamus brevidens, par Michał Wacław Brzeski (d), en 1991[1].
-Geocenamus brevidens a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L'espèce a été initialement classée dans le genre Tylenchorhynchus sous le protonyme Tylenchorhynchus brevidens par Merlin Walters Allen en 1955. Elle est déplacée dans le genre Geocenamus sous le nom binominal Geocenamus brevidens, par Michał Wacław Brzeski (d), en 1991.
+Geocenamus brevidens a pour synonymes :
 Merlinius brevidens (Allen, 1955) Siddiqi, 1970
 Tylenchorhynchus brevidens Allen, 1955</t>
         </is>
